--- a/记录.xlsx
+++ b/记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace_tzw\idea\tzw-ssm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE84B5A-3704-4342-A405-8241D99EC41C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C48AD4-0454-4293-98B9-724DB6D79801}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,7 +85,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -158,7 +158,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -450,7 +450,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -493,7 +493,9 @@
       <c r="C2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="5">
+        <v>11</v>
+      </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>

--- a/记录.xlsx
+++ b/记录.xlsx
@@ -1,21 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace_tzw\idea\tzw-ssm\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C48AD4-0454-4293-98B9-724DB6D79801}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="课程目录1" sheetId="2" r:id="rId1"/>
+    <sheet name="课程目录2" sheetId="3" r:id="rId2"/>
+    <sheet name="计划" sheetId="4" r:id="rId3"/>
+    <sheet name="日常课程" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="149">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,17 +74,553 @@
   </si>
   <si>
     <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IO 精讲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MySQL实战调优</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dubbo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActiveMQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>响应式Web</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编译原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>istio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elastic Stack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亿级流量多级缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高并发高可用lvs+keepalived分布式架构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业级shiro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Go Web课程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JVM调优第一版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020最新Docker进阶课程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机网络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序员的数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做架构必知的人工智能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面试指导课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linux系统网络基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linux系统运维基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多线程与多并发2019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多线程与多并发第二版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集群内并发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Redis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高并发游戏后端真实项目-英雄传说</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring Boot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RocketMQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring Cloud</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微服务会话管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网约车项目实战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zookeeper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏高级架构师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法和数据结构新手班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坦克大战，java基础，网络编程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽丝剥茧设计模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MongoDB基础入门到企业级应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法数据结构体系学习班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Google面试真题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java高级工程师就业班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java零基础后端工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Git</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java高级互联网架构师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技英语课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDEA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maven</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rust</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>redis、多线程、springBoot mvc ，Spring源码等、 dubbo、spring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据结构与算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作流引擎-activiti</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分布式流处理服务-Apache Kafka</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大数据全栈工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java web</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>servlet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏前端开发入门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mycat，sharding-jdbc从入门到精通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>架构师必备技能docker入门到专精</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高并发解决方案之协程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件测试、java高级测试开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左程云_算法与数据结构进阶班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业级Shiro大讲堂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python小白萌新入门到精通一图胜千言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Golang从入门到精通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>go语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Python </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程1-MCA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程2-spring全体系总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring bean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring aop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring 源码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>springCloud上手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微服务用户会话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>响应式web</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>springcloud alibaba</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程3-spring全体系总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java游戏开发入门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring boot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring cloud</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eureka</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ribbon负载均衡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Feign声明式调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hystrix熔断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zuul网管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p8架构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程6 项目整体搭建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多线程高并发，springboot jvm linux</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JAVASE基础用法+面向对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JAVASE异常+常用类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JAVASE集合框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JAVASE基础用法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java集合框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IO流、多线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络编程与JDK新特性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java基础和数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前后端交互技术Servlet与jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异步交互技术Ajax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流行的JavaScript库-Jquery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mybatis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ajax接受数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vue框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vue框架高阶使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring框架介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>springioc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring注解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring aop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring aop声明式事务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring源码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态代理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何云家项目实战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端面试简历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>springmvc1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring ioc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring aop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>springmvc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>springmvc项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring boot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring boot项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dubbo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>redis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mySql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jvm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linux、shell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工具 ，git svn maven jenkins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jquery</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,8 +643,15 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -121,6 +661,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -152,7 +710,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -167,6 +725,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -439,31 +1003,1777 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q62"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="36.875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="28.25" style="6" customWidth="1"/>
+    <col min="3" max="3" width="27.625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="29.75" style="6" customWidth="1"/>
+    <col min="5" max="5" width="20.25" style="6" customWidth="1"/>
+    <col min="6" max="6" width="14.25" style="6" customWidth="1"/>
+    <col min="7" max="7" width="27.5" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A45" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="7"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A53" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="7"/>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="7"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A54" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="7"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A55" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="7"/>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="7"/>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A56" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="7"/>
+      <c r="P56" s="7"/>
+      <c r="Q56" s="7"/>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A57" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7"/>
+      <c r="P57" s="7"/>
+      <c r="Q57" s="7"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A58" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="7"/>
+      <c r="P58" s="7"/>
+      <c r="Q58" s="7"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A59" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="7"/>
+      <c r="O59" s="7"/>
+      <c r="P59" s="7"/>
+      <c r="Q59" s="7"/>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A60" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
+      <c r="M60" s="7"/>
+      <c r="N60" s="7"/>
+      <c r="O60" s="7"/>
+      <c r="P60" s="7"/>
+      <c r="Q60" s="7"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A61" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="7"/>
+      <c r="N61" s="7"/>
+      <c r="O61" s="7"/>
+      <c r="P61" s="7"/>
+      <c r="Q61" s="7"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A62" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="7"/>
+      <c r="O62" s="7"/>
+      <c r="P62" s="7"/>
+      <c r="Q62" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="6"/>
+    <col min="2" max="2" width="27.5" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="7">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <v>2</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <v>3</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>4</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>5</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>6</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>7</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>8</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>9</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>10</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>11</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>12</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>13</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>14</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <v>15</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <v>16</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <v>17</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <v>18</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
+        <v>19</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
+        <v>20</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
+        <v>21</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
+        <v>22</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="7">
+        <v>23</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="7">
+        <v>24</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="7">
+        <v>25</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="7">
+        <v>26</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="7">
+        <v>27</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="7">
+        <v>28</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="7">
+        <v>29</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="7">
+        <v>30</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="37.375" style="6" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.77734375" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="35.5546875" customWidth="1"/>
-    <col min="4" max="4" width="30.109375" customWidth="1"/>
-    <col min="5" max="5" width="19.88671875" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" width="18.75" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="35.5" customWidth="1"/>
+    <col min="4" max="4" width="30.125" customWidth="1"/>
+    <col min="5" max="5" width="19.875" customWidth="1"/>
+    <col min="6" max="6" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -483,7 +2793,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>44256</v>
       </c>
@@ -499,7 +2809,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>44257</v>
       </c>
@@ -511,7 +2821,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>44258</v>
       </c>
@@ -523,7 +2833,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>44259</v>
       </c>
@@ -535,7 +2845,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>44260</v>
       </c>
@@ -547,7 +2857,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>44261</v>
       </c>
@@ -559,7 +2869,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>44262</v>
       </c>
@@ -571,7 +2881,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>44263</v>
       </c>
@@ -583,7 +2893,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>44264</v>
       </c>
@@ -595,7 +2905,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>44265</v>
       </c>
@@ -607,7 +2917,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>44266</v>
       </c>
@@ -619,7 +2929,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>44267</v>
       </c>
@@ -631,7 +2941,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>44268</v>
       </c>
@@ -643,7 +2953,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>44269</v>
       </c>
@@ -655,7 +2965,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>44270</v>
       </c>
@@ -667,7 +2977,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>44271</v>
       </c>
@@ -679,7 +2989,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>44272</v>
       </c>
@@ -691,7 +3001,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>44273</v>
       </c>
@@ -703,7 +3013,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>44274</v>
       </c>
@@ -715,7 +3025,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>44275</v>
       </c>
@@ -727,7 +3037,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>44276</v>
       </c>
@@ -739,7 +3049,7 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>44277</v>
       </c>
@@ -751,7 +3061,7 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>44278</v>
       </c>
@@ -763,7 +3073,7 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>44279</v>
       </c>
@@ -775,7 +3085,7 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>44280</v>
       </c>
@@ -787,7 +3097,7 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>44281</v>
       </c>
@@ -799,7 +3109,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>44282</v>
       </c>
@@ -811,7 +3121,7 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>44283</v>
       </c>
@@ -823,7 +3133,7 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>44284</v>
       </c>
@@ -835,7 +3145,7 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>44285</v>
       </c>
@@ -847,7 +3157,7 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>44286</v>
       </c>

--- a/记录.xlsx
+++ b/记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="课程目录1" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="153">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -610,6 +610,23 @@
   </si>
   <si>
     <t>jquery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring cloud 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Spring Cloud涉及到很多组件
+2.单体到微服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13-14,21-22</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -710,7 +727,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -731,6 +748,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1003,7 +1035,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2398,7 +2430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
@@ -2759,8 +2791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2809,365 +2841,373 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+    <row r="3" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="14">
         <v>44257</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="C3" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4" s="14">
         <v>44258</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="A5" s="14">
         <v>44259</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="A6" s="14">
         <v>44260</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="A7" s="14">
         <v>44261</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="A8" s="14">
         <v>44262</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="A9" s="14">
         <v>44263</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="A10" s="14">
         <v>44264</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+      <c r="A11" s="14">
         <v>44265</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+      <c r="A12" s="14">
         <v>44266</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+      <c r="A13" s="14">
         <v>44267</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+      <c r="A14" s="14">
         <v>44268</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+      <c r="A15" s="14">
         <v>44269</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+      <c r="A16" s="14">
         <v>44270</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
+      <c r="A17" s="14">
         <v>44271</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
+      <c r="A18" s="14">
         <v>44272</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
+      <c r="A19" s="14">
         <v>44273</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
+      <c r="A20" s="14">
         <v>44274</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
+      <c r="A21" s="14">
         <v>44275</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
+      <c r="A22" s="14">
         <v>44276</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
+      <c r="A23" s="14">
         <v>44277</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
+      <c r="A24" s="14">
         <v>44278</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
+      <c r="A25" s="14">
         <v>44279</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
+      <c r="A26" s="14">
         <v>44280</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
+      <c r="A27" s="14">
         <v>44281</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
+      <c r="A28" s="14">
         <v>44282</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
+      <c r="A29" s="14">
         <v>44283</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
+      <c r="A30" s="14">
         <v>44284</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
+      <c r="A31" s="14">
         <v>44285</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
+      <c r="A32" s="14">
         <v>44286</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
